--- a/data/trans_orig/P44C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44C-Provincia-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4175</v>
+        <v>4369</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.136958127120049</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6003345009418478</v>
+        <v>0.6282481557930097</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4824</v>
+        <v>4186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0528439898119269</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2676186281319748</v>
+        <v>0.2322273154754937</v>
       </c>
     </row>
     <row r="5">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4814</v>
+        <v>5060</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2859220340173911</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6922248329077134</v>
+        <v>0.7274964134163728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -827,19 +827,19 @@
         <v>3821</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7878</v>
+        <v>7604</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3451505363092821</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09216173462354231</v>
+        <v>0.09191517446311064</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7116889009439848</v>
+        <v>0.6869353025628768</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -848,19 +848,19 @@
         <v>5809</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2031</v>
+        <v>2050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10373</v>
+        <v>10299</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3222977824238196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1126542223929987</v>
+        <v>0.11371294706552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5754524474460191</v>
+        <v>0.5713670846631917</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4730</v>
+        <v>4762</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2418239870235755</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6800691552185236</v>
+        <v>0.6847290724882498</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -898,19 +898,19 @@
         <v>3102</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6727</v>
+        <v>6830</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2801787603510721</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08075332981959213</v>
+        <v>0.08014410231744558</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6077037904946858</v>
+        <v>0.6170174656073247</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -919,19 +919,19 @@
         <v>4783</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1835</v>
+        <v>1699</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9140</v>
+        <v>9651</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2653799361149579</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1017994500113837</v>
+        <v>0.09426585450412947</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5070467388764952</v>
+        <v>0.5354249104426082</v>
       </c>
     </row>
     <row r="7">
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5419</v>
+        <v>5216</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3352958518389842</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7792054592114069</v>
+        <v>0.7499468938152843</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -969,19 +969,19 @@
         <v>4148</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>977</v>
+        <v>1033</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7799</v>
+        <v>7856</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3746707033396457</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0882425241426039</v>
+        <v>0.0933427358146949</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7044981110292111</v>
+        <v>0.7096285399246682</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -990,19 +990,19 @@
         <v>6480</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3022</v>
+        <v>2777</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11254</v>
+        <v>11235</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3594782916492956</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1676550879571119</v>
+        <v>0.1540794976460197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6243669864233199</v>
+        <v>0.6232760090773073</v>
       </c>
     </row>
     <row r="8">
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5656</v>
+        <v>5583</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05473033311841031</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2770723079087185</v>
+        <v>0.2735151161408395</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5671</v>
+        <v>6311</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02509095246041458</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1273538933856872</v>
+        <v>0.1417316784700246</v>
       </c>
     </row>
     <row r="10">
@@ -1157,19 +1157,19 @@
         <v>7395</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2747</v>
+        <v>2331</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13753</v>
+        <v>13567</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3066801137992293</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1139225314765377</v>
+        <v>0.09666758447759219</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5703523026111279</v>
+        <v>0.5626379284023143</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1178,19 +1178,19 @@
         <v>8731</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4491</v>
+        <v>4481</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13378</v>
+        <v>13237</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.42772645707068</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2200166473266796</v>
+        <v>0.2195349441227469</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6553571741843869</v>
+        <v>0.6484567034315626</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>16126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9881</v>
+        <v>9223</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24467</v>
+        <v>23808</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3621734366328399</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2219190394659046</v>
+        <v>0.2071357892133296</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5495000537991053</v>
+        <v>0.5347073615755126</v>
       </c>
     </row>
     <row r="11">
@@ -1228,19 +1228,19 @@
         <v>14617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8970</v>
+        <v>8747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19858</v>
+        <v>20314</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6061988450891483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3720178416423729</v>
+        <v>0.3627424730649788</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8235578100282578</v>
+        <v>0.8424394823303988</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1249,19 +1249,19 @@
         <v>8571</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4305</v>
+        <v>3285</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13075</v>
+        <v>12844</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4198662980999606</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2108882335924677</v>
+        <v>0.1609423424802521</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6405270151497872</v>
+        <v>0.6291878065536648</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -1270,19 +1270,19 @@
         <v>23188</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15925</v>
+        <v>15185</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30666</v>
+        <v>29965</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5207752634672598</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3576524667077762</v>
+        <v>0.3410464833371995</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6887249103529663</v>
+        <v>0.6729806680948125</v>
       </c>
     </row>
     <row r="12">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7713</v>
+        <v>6995</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08712104111162243</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3198502413048195</v>
+        <v>0.2901073787737434</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6155</v>
+        <v>6238</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09767691171094912</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3015372828367698</v>
+        <v>0.3055798944727683</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1341,19 +1341,19 @@
         <v>4095</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1022</v>
+        <v>1043</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10122</v>
+        <v>9803</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09196034743948581</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02294767832719266</v>
+        <v>0.02343507022467292</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2273388429570354</v>
+        <v>0.2201557209351899</v>
       </c>
     </row>
     <row r="13">
@@ -1505,19 +1505,19 @@
         <v>6205</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2299</v>
+        <v>2039</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9997</v>
+        <v>9969</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4660894855940509</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1726673086730168</v>
+        <v>0.1531530231380538</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7509953333710788</v>
+        <v>0.748873171465544</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1526,19 +1526,19 @@
         <v>6205</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2680</v>
+        <v>2320</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11173</v>
+        <v>10908</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2753794213710501</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1189577891194831</v>
+        <v>0.1029860460908416</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4959017265427029</v>
+        <v>0.4841175034562195</v>
       </c>
     </row>
     <row r="16">
@@ -1555,7 +1555,7 @@
         <v>8176</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4531</v>
+        <v>4498</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>9219</v>
@@ -1564,7 +1564,7 @@
         <v>0.8869045570982447</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.491458561485803</v>
+        <v>0.4879072466100985</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1576,19 +1576,19 @@
         <v>6059</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2325</v>
+        <v>2887</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10327</v>
+        <v>10177</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4551599498393721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1746397807285278</v>
+        <v>0.216864582885019</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7757305725649715</v>
+        <v>0.7644968957299884</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1597,19 +1597,19 @@
         <v>14235</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8846</v>
+        <v>8872</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18371</v>
+        <v>18529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6318171032899171</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3926265535434171</v>
+        <v>0.3937652921968366</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8153821431461926</v>
+        <v>0.8223824177342044</v>
       </c>
     </row>
     <row r="17">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4688</v>
+        <v>4721</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1130954429017553</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5085414385141972</v>
+        <v>0.5120927533899015</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5477</v>
+        <v>4857</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07875056456657696</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4114370695201436</v>
+        <v>0.3648872837009945</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6684</v>
+        <v>6629</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09280347533903276</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2966515096436607</v>
+        <v>0.2942072407388699</v>
       </c>
     </row>
     <row r="18">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6915</v>
+        <v>6904</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2454962378459974</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6981768621030122</v>
+        <v>0.6971052911578836</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4085</v>
+        <v>4009</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06504331334256835</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2779387978650723</v>
+        <v>0.2727287322547065</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11059</v>
+        <v>11721</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1376826224463498</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4494879043057197</v>
+        <v>0.4764141408499609</v>
       </c>
     </row>
     <row r="20">
@@ -1856,19 +1856,19 @@
         <v>6076</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2791</v>
+        <v>2835</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10193</v>
+        <v>10057</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4133685148740207</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1899059022458357</v>
+        <v>0.1928450885495369</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.693456198098267</v>
+        <v>0.6841643344001676</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1877,19 +1877,19 @@
         <v>6076</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2276</v>
+        <v>2053</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11552</v>
+        <v>10943</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2469716365284194</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09251352669917742</v>
+        <v>0.08346392749186152</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4695219171211851</v>
+        <v>0.4447706837167002</v>
       </c>
     </row>
     <row r="21">
@@ -1906,19 +1906,19 @@
         <v>5347</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1708</v>
+        <v>1491</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8688</v>
+        <v>8679</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5398611893096114</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1724215225261448</v>
+        <v>0.1505167709708349</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8771743704340046</v>
+        <v>0.8763401685974679</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1927,19 +1927,19 @@
         <v>6728</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3071</v>
+        <v>3132</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10661</v>
+        <v>10825</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4577336447092459</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2089153342797507</v>
+        <v>0.2130454537754997</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7252552441175906</v>
+        <v>0.7364747978065627</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -1948,19 +1948,19 @@
         <v>12075</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7080</v>
+        <v>7106</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17447</v>
+        <v>17565</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4907931704253125</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2877734575330456</v>
+        <v>0.2888289864381222</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7091504679557183</v>
+        <v>0.7139427247561008</v>
       </c>
     </row>
     <row r="22">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6226</v>
+        <v>6180</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2146425728443913</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6285871608551898</v>
+        <v>0.6239883124945869</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4753</v>
+        <v>4847</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06385452707416504</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.323336019912084</v>
+        <v>0.32973488336137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7296</v>
+        <v>7050</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1245525705999183</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2965448730619464</v>
+        <v>0.2865692656617329</v>
       </c>
     </row>
     <row r="23">
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6613801569779886</v>
+        <v>0.6613673527213831</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5371</v>
+        <v>4395</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3248335690522945</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8179534176758105</v>
+        <v>0.6692906309486309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2212,19 +2212,19 @@
         <v>3167</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7394</v>
+        <v>6519</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2462212958359714</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08012246983372567</v>
+        <v>0.07976918476087227</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5747877641262341</v>
+        <v>0.5067592132634746</v>
       </c>
     </row>
     <row r="26">
@@ -2241,19 +2241,19 @@
         <v>3145</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>968</v>
+        <v>998</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5349</v>
+        <v>5341</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4993206164385606</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1536684573115191</v>
+        <v>0.1585307192351091</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8493687800937036</v>
+        <v>0.8480932414290526</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2262,19 +2262,19 @@
         <v>3378</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5579</v>
+        <v>5550</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5144872018947451</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1690525364521357</v>
+        <v>0.1678511236788088</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.849659735618612</v>
+        <v>0.8452818715314592</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2283,19 +2283,19 @@
         <v>6523</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2179</v>
+        <v>3184</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9755</v>
+        <v>9785</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.507061742487407</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1693839672983084</v>
+        <v>0.2474848442261582</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7583327831833103</v>
+        <v>0.7606687908538572</v>
       </c>
     </row>
     <row r="27">
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5213</v>
+        <v>5232</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3364122783783083</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8277848582988018</v>
+        <v>0.8306823632572506</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4346</v>
+        <v>4362</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1606792290529604</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6618949270957286</v>
+        <v>0.6642722276516489</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -2354,19 +2354,19 @@
         <v>3174</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>957</v>
+        <v>982</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7502</v>
+        <v>7353</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2467169616766216</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07440257069937965</v>
+        <v>0.07630786258180926</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.583177591893063</v>
+        <v>0.5715803829368121</v>
       </c>
     </row>
     <row r="28">
@@ -2505,19 +2505,19 @@
         <v>5080</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1981</v>
+        <v>1949</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8188</v>
+        <v>8192</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4945787070606534</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1928355523484502</v>
+        <v>0.1897490287302482</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7972298330083134</v>
+        <v>0.7975514651366611</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4580</v>
+        <v>4241</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1678812847349522</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7279395305746789</v>
+        <v>0.6739631825285352</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -2547,19 +2547,19 @@
         <v>6136</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2970</v>
+        <v>2893</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10372</v>
+        <v>10297</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3704735874293718</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1792901807075355</v>
+        <v>0.1746726243353485</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.626238885233417</v>
+        <v>0.6216900667174975</v>
       </c>
     </row>
     <row r="31">
@@ -2576,19 +2576,19 @@
         <v>4137</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8184</v>
+        <v>7362</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4027677077539031</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1044863539473002</v>
+        <v>0.1026065933666466</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7967727266015329</v>
+        <v>0.7167661673672959</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2597,7 +2597,7 @@
         <v>4189</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>6292</v>
@@ -2606,7 +2606,7 @@
         <v>0.665833465309588</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1688522846105648</v>
+        <v>0.1679186211194279</v>
       </c>
       <c r="P31" s="6" t="n">
         <v>1</v>
@@ -2618,19 +2618,19 @@
         <v>8326</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4154</v>
+        <v>4235</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12425</v>
+        <v>12451</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5027005663602797</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2507730577108768</v>
+        <v>0.255717979094891</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.75018182171474</v>
+        <v>0.7517472277833166</v>
       </c>
     </row>
     <row r="32">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4228</v>
+        <v>5254</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1026535851854434</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4116755558872656</v>
+        <v>0.5115835885359374</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4213</v>
+        <v>4938</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1662852499554598</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6695249158479677</v>
+        <v>0.7848084683052798</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6290</v>
+        <v>6255</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1268258462103485</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3797882751793142</v>
+        <v>0.3776536900969052</v>
       </c>
     </row>
     <row r="33">
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7641</v>
+        <v>7106</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.113040885395398</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4251408275301056</v>
+        <v>0.395365887365362</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -2814,19 +2814,19 @@
         <v>4272</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1061</v>
+        <v>1121</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10240</v>
+        <v>10679</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1885028469138128</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04682419066507209</v>
+        <v>0.04945983076462797</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4518105882909038</v>
+        <v>0.4711779772983226</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -2835,19 +2835,19 @@
         <v>6304</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2055</v>
+        <v>1743</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14641</v>
+        <v>12767</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1551270216918433</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.050561236647287</v>
+        <v>0.04288539043790054</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3602907028256768</v>
+        <v>0.3141650404206356</v>
       </c>
     </row>
     <row r="35">
@@ -2864,19 +2864,19 @@
         <v>5133</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1794</v>
+        <v>1928</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9595</v>
+        <v>9964</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2855976631885349</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09982239700089478</v>
+        <v>0.107286459711896</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5338522372033405</v>
+        <v>0.5543319530395238</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -2885,19 +2885,19 @@
         <v>6453</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2698</v>
+        <v>2187</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11891</v>
+        <v>11651</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2847244563599574</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1190211955554782</v>
+        <v>0.09649261087181743</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5246533380508936</v>
+        <v>0.5140563760276177</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>11</v>
@@ -2906,19 +2906,19 @@
         <v>11586</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6588</v>
+        <v>5926</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18782</v>
+        <v>17836</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2851106641646156</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1621111148332953</v>
+        <v>0.1458139896712457</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4621832977319358</v>
+        <v>0.4389049231146567</v>
       </c>
     </row>
     <row r="36">
@@ -2935,19 +2935,19 @@
         <v>8427</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3918</v>
+        <v>4120</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13439</v>
+        <v>13455</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4688586850401952</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2179719136105573</v>
+        <v>0.2291939128533748</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.747701674686068</v>
+        <v>0.7485878568538812</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -2956,19 +2956,19 @@
         <v>5100</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1815</v>
+        <v>1118</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10342</v>
+        <v>9784</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.225027026190168</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08008534571362645</v>
+        <v>0.04934156216926953</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4562990644439538</v>
+        <v>0.4316993819314167</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>12</v>
@@ -2977,19 +2977,19 @@
         <v>13527</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7511</v>
+        <v>8081</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>20615</v>
+        <v>21485</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3328705365576461</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1848154119790689</v>
+        <v>0.1988532366249021</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5072766370163467</v>
+        <v>0.5286886398566663</v>
       </c>
     </row>
     <row r="37">
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6886</v>
+        <v>6779</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1325027663758719</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3831103816350151</v>
+        <v>0.3771504736711638</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>5</v>
@@ -3027,19 +3027,19 @@
         <v>6839</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2286</v>
+        <v>2730</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12972</v>
+        <v>12935</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3017456705360618</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1008398869633291</v>
+        <v>0.1204656979294791</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5723280136042092</v>
+        <v>0.5706858514180833</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7</v>
@@ -3048,19 +3048,19 @@
         <v>9220</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4085</v>
+        <v>4143</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>16584</v>
+        <v>16894</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.226891777585895</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.100521515536754</v>
+        <v>0.1019585959675612</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4080896207321385</v>
+        <v>0.415718061636871</v>
       </c>
     </row>
     <row r="38">
@@ -3199,19 +3199,19 @@
         <v>7511</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3098</v>
+        <v>3257</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14218</v>
+        <v>13044</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2797050126069621</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1153758954348079</v>
+        <v>0.1212875613816203</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5294840612950787</v>
+        <v>0.4857405809619675</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6584</v>
+        <v>6512</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1463621331786831</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4376094742395859</v>
+        <v>0.432858197341994</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -3241,19 +3241,19 @@
         <v>9713</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4505</v>
+        <v>4464</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>16964</v>
+        <v>17097</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2318244583123404</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1075243764836762</v>
+        <v>0.1065403609075669</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4048822454819337</v>
+        <v>0.4080708836257198</v>
       </c>
     </row>
     <row r="41">
@@ -3270,19 +3270,19 @@
         <v>17124</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10844</v>
+        <v>11199</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22168</v>
+        <v>22324</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.6377114965615116</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4038229361702648</v>
+        <v>0.4170656234489566</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8255304270894095</v>
+        <v>0.8313462950359765</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>8</v>
@@ -3291,19 +3291,19 @@
         <v>8418</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4128</v>
+        <v>4207</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11753</v>
+        <v>11829</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5595151359512909</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2743987702456913</v>
+        <v>0.2796406635574987</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.7811628381438109</v>
+        <v>0.7862371314007649</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>23</v>
@@ -3312,19 +3312,19 @@
         <v>25542</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>17977</v>
+        <v>18435</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>31820</v>
+        <v>31458</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.609632868697072</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4290774760682399</v>
+        <v>0.4400080702033115</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7594732623498877</v>
+        <v>0.7508301511382102</v>
       </c>
     </row>
     <row r="42">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6941</v>
+        <v>6898</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08258349083152636</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2584845332759657</v>
+        <v>0.25686725556595</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4</v>
@@ -3362,19 +3362,19 @@
         <v>4425</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>8778</v>
+        <v>7776</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.294122730870026</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07575560602455457</v>
+        <v>0.07519810313604255</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5834336257047907</v>
+        <v>0.5168271666177188</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6</v>
@@ -3383,19 +3383,19 @@
         <v>6643</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3182</v>
+        <v>3062</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>13421</v>
+        <v>12439</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1585426729905876</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07595787458184818</v>
+        <v>0.0730760558843391</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3203138103739435</v>
+        <v>0.296880993244572</v>
       </c>
     </row>
     <row r="43">
@@ -3487,19 +3487,19 @@
         <v>5416</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>970</v>
+        <v>1014</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>15170</v>
+        <v>15407</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04853262916438378</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.00869712258184952</v>
+        <v>0.00908429080356527</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1359440396314955</v>
+        <v>0.1380726294888392</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>5</v>
@@ -3508,19 +3508,19 @@
         <v>6346</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2194</v>
+        <v>2209</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14327</v>
+        <v>15225</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.05765549173291993</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01993298021714471</v>
+        <v>0.02007254800606035</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1301774627071553</v>
+        <v>0.1383293118593171</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>8</v>
@@ -3529,19 +3529,19 @@
         <v>11761</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>5133</v>
+        <v>4910</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>22234</v>
+        <v>21849</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.05306266293323345</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02316043944353852</v>
+        <v>0.02215046036144153</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1003124197256138</v>
+        <v>0.09857389133095985</v>
       </c>
     </row>
     <row r="45">
@@ -3558,19 +3558,19 @@
         <v>28142</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>18355</v>
+        <v>18535</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>39034</v>
+        <v>38261</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2522005500286593</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1644890067857555</v>
+        <v>0.166106817562154</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3498054162201948</v>
+        <v>0.3428772187556204</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>34</v>
@@ -3579,19 +3579,19 @@
         <v>36677</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>27356</v>
+        <v>27014</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>46931</v>
+        <v>46762</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.333241493420016</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2485554371718362</v>
+        <v>0.2454466848553366</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.4264085285447496</v>
+        <v>0.4248774927575187</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>58</v>
@@ -3600,19 +3600,19 @@
         <v>64819</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>51019</v>
+        <v>51364</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>78641</v>
+        <v>81623</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2924421088008406</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2301819912727269</v>
+        <v>0.23173649582895</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3548010393167533</v>
+        <v>0.368257303365484</v>
       </c>
     </row>
     <row r="46">
@@ -3629,19 +3629,19 @@
         <v>62656</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>50448</v>
+        <v>50553</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>72635</v>
+        <v>72904</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.5614961472657999</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.4520933499573943</v>
+        <v>0.4530339891005794</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.6509236766751187</v>
+        <v>0.6533392638087999</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>42</v>
@@ -3650,19 +3650,19 @@
         <v>45545</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>34712</v>
+        <v>35647</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>56207</v>
+        <v>57392</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.4138148096110622</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3153884641516315</v>
+        <v>0.3238881036954412</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.5106870679515352</v>
+        <v>0.5214578864905217</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>97</v>
@@ -3671,19 +3671,19 @@
         <v>108201</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>91941</v>
+        <v>91031</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>122912</v>
+        <v>122770</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.4881637429268184</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.4148068757289149</v>
+        <v>0.4106998187555115</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5545368045483098</v>
+        <v>0.5538979737137327</v>
       </c>
     </row>
     <row r="47">
@@ -3700,19 +3700,19 @@
         <v>15373</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>9034</v>
+        <v>8814</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>23613</v>
+        <v>23308</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.137770673541157</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08096226702208542</v>
+        <v>0.07898652986284863</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2116121011473911</v>
+        <v>0.2088810888463118</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>19</v>
@@ -3721,19 +3721,19 @@
         <v>21494</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>13747</v>
+        <v>13660</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>31488</v>
+        <v>30324</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1952882052360018</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1249041314448983</v>
+        <v>0.1241087210604253</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2860982355008986</v>
+        <v>0.275518614715637</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>33</v>
@@ -3742,19 +3742,19 @@
         <v>36867</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>26703</v>
+        <v>26121</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>50530</v>
+        <v>49884</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1663314853391075</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1204725872855083</v>
+        <v>0.1178509105383218</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2279733334521715</v>
+        <v>0.2250580971153032</v>
       </c>
     </row>
     <row r="48">
@@ -4090,19 +4090,19 @@
         <v>3892</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9849</v>
+        <v>9450</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1665467758083448</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0448113467472859</v>
+        <v>0.04439242870915297</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4214369675764045</v>
+        <v>0.4043290348384932</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5994</v>
+        <v>5512</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07020767487794777</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3737432595455826</v>
+        <v>0.3437160372311456</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4132,19 +4132,19 @@
         <v>5018</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1722</v>
+        <v>1178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11640</v>
+        <v>11059</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1273417394368038</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04369772400390929</v>
+        <v>0.02988031189116963</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2953839109132319</v>
+        <v>0.280620084210698</v>
       </c>
     </row>
     <row r="5">
@@ -4161,19 +4161,19 @@
         <v>9921</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5471</v>
+        <v>5364</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15663</v>
+        <v>15155</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4245171552994667</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2340868161443649</v>
+        <v>0.229521761357063</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6701998638978031</v>
+        <v>0.6484648454696502</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -4182,19 +4182,19 @@
         <v>5956</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2080</v>
+        <v>2204</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10772</v>
+        <v>10840</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3713932120756406</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1297182301290421</v>
+        <v>0.1374103182628586</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6717224540237783</v>
+        <v>0.6759430252643606</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -4203,19 +4203,19 @@
         <v>15877</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10355</v>
+        <v>9855</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22707</v>
+        <v>23144</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4028984552475063</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2627582380591543</v>
+        <v>0.2500691411067061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.57620307968548</v>
+        <v>0.5872840734444388</v>
       </c>
     </row>
     <row r="6">
@@ -4232,19 +4232,19 @@
         <v>4465</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10097</v>
+        <v>9202</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1910620591447715</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04505800807067072</v>
+        <v>0.04471698955591605</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.432027457808063</v>
+        <v>0.3937419264268951</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -4253,19 +4253,19 @@
         <v>7136</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3452</v>
+        <v>2816</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12009</v>
+        <v>11358</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4449575201403415</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2152505330835613</v>
+        <v>0.1755671294952143</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7488512572631697</v>
+        <v>0.708254393973294</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -4274,19 +4274,19 @@
         <v>11601</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6790</v>
+        <v>6153</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18588</v>
+        <v>18016</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2943843933452124</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1722970590660057</v>
+        <v>0.1561395480747772</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4716820882912375</v>
+        <v>0.4571578057182971</v>
       </c>
     </row>
     <row r="7">
@@ -4303,19 +4303,19 @@
         <v>5092</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1893</v>
+        <v>1870</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9789</v>
+        <v>9931</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2178740097474171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08100462980681353</v>
+        <v>0.08002890878203277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4188347685514431</v>
+        <v>0.4249331540649414</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6653</v>
+        <v>6546</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1134415929060702</v>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4148709669976355</v>
+        <v>0.4081903461803247</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -4345,19 +4345,19 @@
         <v>6911</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2926</v>
+        <v>3068</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13310</v>
+        <v>12878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1753754119704774</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07425908297479153</v>
+        <v>0.07785181267527615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3377383524406302</v>
+        <v>0.3267926563353914</v>
       </c>
     </row>
     <row r="8">
@@ -4496,19 +4496,19 @@
         <v>2813</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>756</v>
+        <v>796</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6231</v>
+        <v>6430</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2510596634027319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06748347917948649</v>
+        <v>0.07106162194577008</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5561342768615376</v>
+        <v>0.5738651499004362</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4853</v>
+        <v>5705</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3648710245903709</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7210592764408507</v>
+        <v>0.847573650067791</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -4538,19 +4538,19 @@
         <v>5269</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1891</v>
+        <v>1970</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9738</v>
+        <v>10010</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2937735039547009</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1054048347055812</v>
+        <v>0.1098298445404287</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5429123743073389</v>
+        <v>0.5581053236873507</v>
       </c>
     </row>
     <row r="11">
@@ -4567,19 +4567,19 @@
         <v>6489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9647</v>
+        <v>9554</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5791246327365888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2761619513625536</v>
+        <v>0.275949347210474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8610649310443931</v>
+        <v>0.8527596944908654</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5465</v>
+        <v>5460</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3006371347506853</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8118664867343117</v>
+        <v>0.8111645845262151</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -4609,19 +4609,19 @@
         <v>8513</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4527</v>
+        <v>4775</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12727</v>
+        <v>13315</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4746072061760265</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2523835958494251</v>
+        <v>0.2662296374027566</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7095508089525305</v>
+        <v>0.742360267576553</v>
       </c>
     </row>
     <row r="12">
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5180</v>
+        <v>5707</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1698157038606794</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4623231762650992</v>
+        <v>0.509350250474807</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5637</v>
+        <v>4671</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3344918406589438</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.837480752599555</v>
+        <v>0.6939353887247706</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -4680,19 +4680,19 @@
         <v>4154</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1117</v>
+        <v>1095</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9313</v>
+        <v>8681</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2316192898692725</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06230477001498182</v>
+        <v>0.06106664875743508</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5192419898421609</v>
+        <v>0.4839715627524609</v>
       </c>
     </row>
     <row r="13">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5915</v>
+        <v>6681</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09883401288037473</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3033429841479304</v>
+        <v>0.3426610423800959</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5933</v>
+        <v>6515</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06482974367593652</v>
@@ -4817,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3118700456645984</v>
+        <v>0.3424681797003962</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -4826,19 +4826,19 @@
         <v>3160</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>903</v>
+        <v>935</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8564</v>
+        <v>8131</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08204130735179668</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02344754067538272</v>
+        <v>0.02426560725625704</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2223084258635953</v>
+        <v>0.211076468701568</v>
       </c>
     </row>
     <row r="15">
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4349</v>
+        <v>3721</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04453509558482426</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2230462677995814</v>
+        <v>0.1908349732019191</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5614</v>
+        <v>4474</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05240505901785049</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2951019830161961</v>
+        <v>0.2351961967634691</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5812</v>
+        <v>5851</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04842160694188168</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1508896805961714</v>
+        <v>0.1518820787051778</v>
       </c>
     </row>
     <row r="16">
@@ -4926,19 +4926,19 @@
         <v>15064</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10314</v>
+        <v>10117</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18492</v>
+        <v>18463</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7725691176120497</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5289674560223953</v>
+        <v>0.5188562169458172</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9483973964748681</v>
+        <v>0.9469323586125337</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -4947,19 +4947,19 @@
         <v>15801</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10944</v>
+        <v>11054</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18113</v>
+        <v>18124</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8306503686314217</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5753015619784829</v>
+        <v>0.5810766955856504</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9521884873882097</v>
+        <v>0.9527646429127288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -4968,19 +4968,19 @@
         <v>30865</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24246</v>
+        <v>25067</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35090</v>
+        <v>35491</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8012520261973175</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6294248136121198</v>
+        <v>0.6507310574312158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9109242766245798</v>
+        <v>0.9213491428036733</v>
       </c>
     </row>
     <row r="17">
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7032</v>
+        <v>7184</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08406177392275134</v>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3606644958921178</v>
+        <v>0.368422651829413</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5967</v>
+        <v>4902</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05211482867479126</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3136629537078636</v>
+        <v>0.2577138726686017</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8783</v>
+        <v>9605</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06828505950900417</v>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2280104928917615</v>
+        <v>0.2493368311966634</v>
       </c>
     </row>
     <row r="18">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4248</v>
+        <v>4820</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03202510742913482</v>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1644328134241691</v>
+        <v>0.186556352567205</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6887</v>
+        <v>7036</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1180278648428258</v>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.358395311070597</v>
+        <v>0.366150010104675</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -5188,16 +5188,16 @@
         <v>820</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8235</v>
+        <v>8013</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0687070620174816</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01819457164860994</v>
+        <v>0.01820495886473846</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1827695969103824</v>
+        <v>0.1778431331034701</v>
       </c>
     </row>
     <row r="20">
@@ -5214,19 +5214,19 @@
         <v>7428</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3848</v>
+        <v>3348</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12805</v>
+        <v>12335</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2874903778281822</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1489232798648664</v>
+        <v>0.1295641029993671</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4956018918251425</v>
+        <v>0.4774093519763467</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -5235,19 +5235,19 @@
         <v>5868</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2289</v>
+        <v>2248</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11106</v>
+        <v>11519</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3053721747087786</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1191032281477854</v>
+        <v>0.1169638525748116</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5779680264744124</v>
+        <v>0.5994696376443872</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -5256,19 +5256,19 @@
         <v>13296</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8050</v>
+        <v>7801</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20422</v>
+        <v>20429</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2951173339963069</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.178675036559671</v>
+        <v>0.1731404873663368</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4532767785299502</v>
+        <v>0.4534253896285592</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>11516</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6850</v>
+        <v>6268</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16944</v>
+        <v>16440</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4457200348013638</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2651172443487303</v>
+        <v>0.2426163651520736</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6557892058699035</v>
+        <v>0.6363042304390262</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -5306,19 +5306,19 @@
         <v>11080</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5969</v>
+        <v>6058</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15365</v>
+        <v>15620</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5765999604483956</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3106215361066021</v>
+        <v>0.3152751471211159</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7995745696152914</v>
+        <v>0.8128886195186756</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -5327,19 +5327,19 @@
         <v>22597</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15734</v>
+        <v>15629</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29276</v>
+        <v>29364</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5015430297085753</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3492321245428017</v>
+        <v>0.3469043760926688</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6498035878782815</v>
+        <v>0.6517588804940309</v>
       </c>
     </row>
     <row r="22">
@@ -5356,19 +5356,19 @@
         <v>6066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2260</v>
+        <v>2394</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11255</v>
+        <v>11697</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2347644799413192</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08747665109804442</v>
+        <v>0.09264872493561482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4356246634614833</v>
+        <v>0.452707102744378</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -5390,19 +5390,19 @@
         <v>6066</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2888</v>
+        <v>2691</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12391</v>
+        <v>11871</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1346325742776362</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06410265965158338</v>
+        <v>0.05973931107153552</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2750299721371768</v>
+        <v>0.2634782466218551</v>
       </c>
     </row>
     <row r="23">
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4556</v>
+        <v>3990</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1420748302314</v>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6545144459411286</v>
+        <v>0.5731718203685801</v>
       </c>
     </row>
     <row r="25">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3989</v>
+        <v>3097</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.263836611951089</v>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>1</v>
+        <v>0.7764536251815269</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4138</v>
+        <v>3202</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1512073990599277</v>
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.594482937022986</v>
+        <v>0.4599464845372084</v>
       </c>
     </row>
     <row r="26">
@@ -5641,7 +5641,7 @@
         <v>2937</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>3989</v>
@@ -5650,7 +5650,7 @@
         <v>0.736163388048911</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0</v>
+        <v>0.2235463748184731</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -5662,7 +5662,7 @@
         <v>4919</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1941</v>
+        <v>1901</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>6961</v>
@@ -5671,7 +5671,7 @@
         <v>0.7067177707086723</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2788150708193992</v>
+        <v>0.2730404298516275</v>
       </c>
       <c r="W26" s="6" t="n">
         <v>1</v>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5194</v>
+        <v>4710</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1539592492487816</v>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5000255005313383</v>
+        <v>0.4534606756231789</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -5881,19 +5881,19 @@
         <v>4535</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1322</v>
+        <v>1241</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7619</v>
+        <v>7621</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5270594095946456</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1536258069186488</v>
+        <v>0.1442249513638089</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8853932196332375</v>
+        <v>0.8856148991179281</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>6</v>
@@ -5902,19 +5902,19 @@
         <v>6134</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2632</v>
+        <v>2326</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>11349</v>
+        <v>10482</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3230065860711127</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1385790037412893</v>
+        <v>0.1224905693480841</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5976234556489297</v>
+        <v>0.5519267765914891</v>
       </c>
     </row>
     <row r="31">
@@ -5931,19 +5931,19 @@
         <v>4673</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1133</v>
+        <v>1192</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8057</v>
+        <v>7964</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4498543104965489</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1090405519248628</v>
+        <v>0.1147684492618417</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7757223582266433</v>
+        <v>0.7667261911752483</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -5952,19 +5952,19 @@
         <v>4070</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7283</v>
+        <v>7364</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4729405904053544</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1146067803667625</v>
+        <v>0.1143851008820719</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.8463741930813512</v>
+        <v>0.8557750486361911</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -5973,19 +5973,19 @@
         <v>8742</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>4208</v>
+        <v>4280</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13634</v>
+        <v>13104</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4603144350167332</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2216022895159457</v>
+        <v>0.2253448624546199</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7179428133558061</v>
+        <v>0.6900146123799317</v>
       </c>
     </row>
     <row r="32">
@@ -6002,19 +6002,19 @@
         <v>4115</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7732</v>
+        <v>7549</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3961864402546694</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09278368078480782</v>
+        <v>0.09243268257753673</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7443830714137694</v>
+        <v>0.7268061805918683</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -6036,19 +6036,19 @@
         <v>4115</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9193</v>
+        <v>8939</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2166789789121541</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05401650766868456</v>
+        <v>0.05380918254269604</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4840533753976202</v>
+        <v>0.4706788797209603</v>
       </c>
     </row>
     <row r="33">
@@ -6140,19 +6140,19 @@
         <v>3114</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>8357</v>
+        <v>8800</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0755465907152096</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02196550066132051</v>
+        <v>0.02209118108905944</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2027564578468651</v>
+        <v>0.2135048360912583</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -6174,19 +6174,19 @@
         <v>3114</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8457</v>
+        <v>8139</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04485775671621785</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01299083163447483</v>
+        <v>0.01319252418097736</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1218307862667396</v>
+        <v>0.1172565488299455</v>
       </c>
     </row>
     <row r="35">
@@ -6203,19 +6203,19 @@
         <v>7481</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3408</v>
+        <v>3071</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14045</v>
+        <v>13758</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1815106440615045</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08268599960510367</v>
+        <v>0.07449864050221927</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3407628007544566</v>
+        <v>0.3337903180145521</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -6224,19 +6224,19 @@
         <v>8268</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3749</v>
+        <v>3704</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>14090</v>
+        <v>14416</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2931974905930964</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1329466651264954</v>
+        <v>0.1313546753118017</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4996843181905622</v>
+        <v>0.5112583171879282</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>14</v>
@@ -6245,19 +6245,19 @@
         <v>15749</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>9136</v>
+        <v>9258</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>24037</v>
+        <v>24075</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2268805152976506</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.131618576477281</v>
+        <v>0.1333730924300875</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3462856143905551</v>
+        <v>0.3468311635683221</v>
       </c>
     </row>
     <row r="36">
@@ -6274,19 +6274,19 @@
         <v>22734</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15592</v>
+        <v>16509</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>29244</v>
+        <v>28887</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.551573224831218</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3782946997705631</v>
+        <v>0.4005475041078631</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7095246046664331</v>
+        <v>0.7008548609161555</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>12</v>
@@ -6295,7 +6295,7 @@
         <v>13837</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8238</v>
+        <v>8303</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>19793</v>
@@ -6304,10 +6304,10 @@
         <v>0.4907230101925237</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2921431964346195</v>
+        <v>0.2944619857362379</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.70193332210435</v>
+        <v>0.7019391798090834</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>34</v>
@@ -6316,19 +6316,19 @@
         <v>36572</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>27468</v>
+        <v>27905</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>44647</v>
+        <v>45790</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5268544106773194</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3957016583674715</v>
+        <v>0.4020012293045946</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6431877892404736</v>
+        <v>0.6596495110920435</v>
       </c>
     </row>
     <row r="37">
@@ -6345,19 +6345,19 @@
         <v>7888</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14550</v>
+        <v>14343</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.191369540392068</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08341034997659978</v>
+        <v>0.08332945406476772</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3530002522183042</v>
+        <v>0.3479951440718088</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>5</v>
@@ -6366,19 +6366,19 @@
         <v>6093</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2167</v>
+        <v>2145</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12177</v>
+        <v>12115</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2160794992143799</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07686493406976987</v>
+        <v>0.07607171242792991</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4318539574715025</v>
+        <v>0.4296235056619444</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>12</v>
@@ -6387,19 +6387,19 @@
         <v>13981</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>8463</v>
+        <v>7824</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>22702</v>
+        <v>22172</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2014073173088121</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1219217422976002</v>
+        <v>0.1127105792886686</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3270407036735712</v>
+        <v>0.3194053905424709</v>
       </c>
     </row>
     <row r="38">
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5435</v>
+        <v>4588</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04012832690229065</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2058427890854596</v>
+        <v>0.1737321173959605</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1</v>
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>5398</v>
+        <v>4415</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.08015251506246922</v>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4007687741585974</v>
+        <v>0.3277639098783016</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2</v>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>6949</v>
+        <v>6543</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.05364820184192524</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1742570733683614</v>
+        <v>0.1640819644360273</v>
       </c>
     </row>
     <row r="40">
@@ -6575,19 +6575,19 @@
         <v>4676</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1161</v>
+        <v>1187</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>9217</v>
+        <v>8281</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.347107080979569</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08617927889029502</v>
+        <v>0.08815684570603464</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6842854363021901</v>
+        <v>0.6147556428320862</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -6596,19 +6596,19 @@
         <v>4675</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>10294</v>
+        <v>10721</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1172502064682592</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02939823247724307</v>
+        <v>0.02947807866805669</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2581531614102225</v>
+        <v>0.268866396530619</v>
       </c>
     </row>
     <row r="41">
@@ -6625,19 +6625,19 @@
         <v>21174</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>16090</v>
+        <v>16449</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24410</v>
+        <v>24515</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.8018548461382942</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.609319998742288</v>
+        <v>0.6229077522949323</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.9244268627649842</v>
+        <v>0.928402256462355</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -6646,19 +6646,19 @@
         <v>3147</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6667</v>
+        <v>7438</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2336075516644566</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07267842916982334</v>
+        <v>0.07329739143132873</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4949482491911995</v>
+        <v>0.5521716588995996</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>21</v>
@@ -6667,19 +6667,19 @@
         <v>24321</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>17261</v>
+        <v>18050</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>30760</v>
+        <v>30713</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.6099051100105866</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4328746815239812</v>
+        <v>0.4526595369940786</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.771395024202345</v>
+        <v>0.770224577898972</v>
       </c>
     </row>
     <row r="42">
@@ -6696,19 +6696,19 @@
         <v>4173</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1144</v>
+        <v>1035</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9694</v>
+        <v>9120</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1580168269594152</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04333312284511214</v>
+        <v>0.03917984907585899</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3671120423708023</v>
+        <v>0.345368385197678</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4</v>
@@ -6717,19 +6717,19 @@
         <v>4568</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1094</v>
+        <v>2101</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>9005</v>
+        <v>9121</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3391328522935051</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0812385735190497</v>
+        <v>0.1559916419143242</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.668542376112048</v>
+        <v>0.6771000915039673</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>8</v>
@@ -6738,19 +6738,19 @@
         <v>8741</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3877</v>
+        <v>4222</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>15245</v>
+        <v>15177</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2191964816792291</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09721511370773778</v>
+        <v>0.1058821292031909</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.382304962376194</v>
+        <v>0.3805930728587937</v>
       </c>
     </row>
     <row r="43">
@@ -6842,19 +6842,19 @@
         <v>11809</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>6062</v>
+        <v>6305</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>19985</v>
+        <v>20414</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.07339907133207714</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03767963299035626</v>
+        <v>0.0391859889654327</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1242133762298719</v>
+        <v>0.1268781567038063</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>5</v>
@@ -6863,19 +6863,19 @@
         <v>5707</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2241</v>
+        <v>2202</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>12974</v>
+        <v>12766</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.04950885043281895</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01944404713353578</v>
+        <v>0.01910509668309983</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1125572101176601</v>
+        <v>0.1107504990877602</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>16</v>
@@ -6884,19 +6884,19 @@
         <v>17516</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10303</v>
+        <v>9904</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>26847</v>
+        <v>27269</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.06342728272150072</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03730929874020635</v>
+        <v>0.0358614660973038</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.09721583692371838</v>
+        <v>0.09874443360684391</v>
       </c>
     </row>
     <row r="45">
@@ -6913,19 +6913,19 @@
         <v>30111</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>21353</v>
+        <v>21274</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>40822</v>
+        <v>40424</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.1871517308457072</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1327179792907449</v>
+        <v>0.1322254968880432</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2537241426913297</v>
+        <v>0.2512488557161139</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>29</v>
@@ -6934,19 +6934,19 @@
         <v>33808</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>23738</v>
+        <v>23994</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>45691</v>
+        <v>44912</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.2932936397310701</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2059326223754747</v>
+        <v>0.2081522992770543</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.396379568390563</v>
+        <v>0.389626203211112</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>60</v>
@@ -6955,19 +6955,19 @@
         <v>63919</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>51040</v>
+        <v>49371</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>79341</v>
+        <v>77973</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2314554098527425</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1848196810502798</v>
+        <v>0.1787736953951734</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2872986832042348</v>
+        <v>0.2823463998144587</v>
       </c>
     </row>
     <row r="46">
@@ -6984,19 +6984,19 @@
         <v>88097</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>75606</v>
+        <v>75717</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>100345</v>
+        <v>101807</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.5475523999818972</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.4699195300639163</v>
+        <v>0.4706083639099998</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.6236802891500974</v>
+        <v>0.6327684070747694</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>52</v>
@@ -7005,19 +7005,19 @@
         <v>60032</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>48652</v>
+        <v>48532</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>71333</v>
+        <v>72131</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.5207934941262696</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.4220688218310071</v>
+        <v>0.4210296193627632</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.618835638131655</v>
+        <v>0.6257565244165598</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>136</v>
@@ -7026,19 +7026,19 @@
         <v>148129</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>130914</v>
+        <v>131206</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>165356</v>
+        <v>165588</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.5363832210208554</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.474049065490096</v>
+        <v>0.4751049013624439</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5987641194888786</v>
+        <v>0.5996036810597969</v>
       </c>
     </row>
     <row r="47">
@@ -7055,19 +7055,19 @@
         <v>30875</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>21249</v>
+        <v>21994</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>42552</v>
+        <v>41661</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1918967978403185</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1320683274909481</v>
+        <v>0.1366999907113396</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2644772197643126</v>
+        <v>0.25893474820297</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>13</v>
@@ -7076,19 +7076,19 @@
         <v>15723</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>8914</v>
+        <v>8291</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>25226</v>
+        <v>25281</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1364040157098413</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07732725955817572</v>
+        <v>0.07192435521967006</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2188400442422603</v>
+        <v>0.2193227966917299</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>42</v>
@@ -7097,19 +7097,19 @@
         <v>46598</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>33668</v>
+        <v>34839</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>61170</v>
+        <v>62317</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1687340864049012</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1219128055596269</v>
+        <v>0.12615294885076</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2214993437043192</v>
+        <v>0.2256546509072154</v>
       </c>
     </row>
     <row r="48">
@@ -7445,19 +7445,19 @@
         <v>2224</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5730</v>
+        <v>6840</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03024851318933116</v>
+        <v>0.03024851318933115</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009087587858144053</v>
+        <v>0.009137300724076199</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07791218512822935</v>
+        <v>0.09301012731154629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -7466,19 +7466,19 @@
         <v>1492</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3967</v>
+        <v>3960</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04069601799445931</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01324933834933806</v>
+        <v>0.01321747340561419</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1081708775016416</v>
+        <v>0.1079801471130249</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -7487,19 +7487,19 @@
         <v>3717</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1492</v>
+        <v>1460</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7922</v>
+        <v>7944</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03372476552481195</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01353444590187956</v>
+        <v>0.01324629812166724</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07188367568888887</v>
+        <v>0.07208472115894252</v>
       </c>
     </row>
     <row r="5">
@@ -7516,19 +7516,19 @@
         <v>32121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25205</v>
+        <v>24672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39552</v>
+        <v>38837</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4367848058972988</v>
+        <v>0.4367848058972987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3427475298809748</v>
+        <v>0.335497969444098</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5378323129753595</v>
+        <v>0.528110843826711</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>40</v>
@@ -7537,19 +7537,19 @@
         <v>19611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15319</v>
+        <v>15652</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23617</v>
+        <v>23555</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5347936843746482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4177532292783471</v>
+        <v>0.4268385905315242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6440544711148082</v>
+        <v>0.6423579470248271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -7558,19 +7558,19 @@
         <v>51732</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42759</v>
+        <v>43720</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60083</v>
+        <v>60518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4693958071899237</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3879773983027633</v>
+        <v>0.396697058102439</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5451733429318585</v>
+        <v>0.5491163637422873</v>
       </c>
     </row>
     <row r="6">
@@ -7587,19 +7587,19 @@
         <v>38354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30639</v>
+        <v>31516</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45422</v>
+        <v>46300</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5215523559275452</v>
+        <v>0.521552355927545</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4166318695540544</v>
+        <v>0.4285635553191675</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6176605596627308</v>
+        <v>0.6296004481766047</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -7608,19 +7608,19 @@
         <v>15567</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11219</v>
+        <v>12001</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19898</v>
+        <v>19900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4245102976308924</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3059394807665987</v>
+        <v>0.3272675520853334</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5426177865090995</v>
+        <v>0.5426672396745247</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>81</v>
@@ -7629,19 +7629,19 @@
         <v>53921</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45751</v>
+        <v>45449</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63160</v>
+        <v>62172</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.489263049716552</v>
+        <v>0.4892630497165519</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4151299297078912</v>
+        <v>0.4123914901621722</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.573092588294182</v>
+        <v>0.5641306578490842</v>
       </c>
     </row>
     <row r="7">
@@ -7661,16 +7661,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4759</v>
+        <v>4186</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01141432498582532</v>
+        <v>0.01141432498582531</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06471664426923432</v>
+        <v>0.05692254862205048</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4974</v>
+        <v>4423</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00761637756871231</v>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04512876918757717</v>
+        <v>0.04013403421238626</v>
       </c>
     </row>
     <row r="8">
@@ -7796,19 +7796,19 @@
         <v>3255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8765</v>
+        <v>9439</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04994975696945122</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01511264079209075</v>
+        <v>0.01516067731668333</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1345040983320464</v>
+        <v>0.1448571207576516</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -7817,19 +7817,19 @@
         <v>2486</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5724</v>
+        <v>6264</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06081023492243708</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01495745273926688</v>
+        <v>0.01505417183209208</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1399965308483787</v>
+        <v>0.1531998532485402</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -7838,19 +7838,19 @@
         <v>5741</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2195</v>
+        <v>2753</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10955</v>
+        <v>11892</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05413705212520297</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02069462982628586</v>
+        <v>0.02596203790132785</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1033007298581005</v>
+        <v>0.112136380183212</v>
       </c>
     </row>
     <row r="10">
@@ -7867,19 +7867,19 @@
         <v>14861</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8188</v>
+        <v>8619</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22141</v>
+        <v>22443</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2280607534685028</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1256495099805295</v>
+        <v>0.1322717706726585</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3397908607767289</v>
+        <v>0.3444256898573591</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -7888,19 +7888,19 @@
         <v>10460</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6225</v>
+        <v>6570</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15335</v>
+        <v>15494</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.255830921268097</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1522455860821317</v>
+        <v>0.1606729665188386</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3750556754306684</v>
+        <v>0.3789415143699879</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -7909,19 +7909,19 @@
         <v>25321</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18471</v>
+        <v>17787</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33937</v>
+        <v>34534</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.238767638525038</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1741693447696112</v>
+        <v>0.167726521043109</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3200091554974683</v>
+        <v>0.3256352254015196</v>
       </c>
     </row>
     <row r="11">
@@ -7938,19 +7938,19 @@
         <v>26206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18127</v>
+        <v>18246</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33789</v>
+        <v>34423</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4021732435520907</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2781844836520214</v>
+        <v>0.2800119491996449</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5185346007225313</v>
+        <v>0.5282667245272504</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -7959,19 +7959,19 @@
         <v>9595</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5937</v>
+        <v>5309</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14933</v>
+        <v>14195</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2346739435818092</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1452060051566228</v>
+        <v>0.1298399631727556</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3652257282665023</v>
+        <v>0.3471719086165856</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -7980,19 +7980,19 @@
         <v>35802</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27819</v>
+        <v>26371</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45362</v>
+        <v>45512</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3375933042166822</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2623223829889164</v>
+        <v>0.2486616467117771</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4277433896245332</v>
+        <v>0.4291559101390706</v>
       </c>
     </row>
     <row r="12">
@@ -8009,19 +8009,19 @@
         <v>20840</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14066</v>
+        <v>13517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29365</v>
+        <v>29193</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3198162460099555</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.215869045678265</v>
+        <v>0.2074377831793918</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4506405393880681</v>
+        <v>0.4480139952455403</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -8030,19 +8030,19 @@
         <v>18346</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13468</v>
+        <v>13163</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23439</v>
+        <v>23545</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4486849002276567</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3293840638661407</v>
+        <v>0.3219342483289425</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5732551655217106</v>
+        <v>0.5758534451732278</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -8051,19 +8051,19 @@
         <v>39186</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30210</v>
+        <v>29892</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>49081</v>
+        <v>48165</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.369502005133077</v>
+        <v>0.3695020051330769</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2848627280133824</v>
+        <v>0.2818710261437955</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4628078724008937</v>
+        <v>0.4541756365769528</v>
       </c>
     </row>
     <row r="13">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2847</v>
+        <v>3204</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01012674585125123</v>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05117412237773009</v>
+        <v>0.0575850712840448</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -8176,19 +8176,19 @@
         <v>3679</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1381</v>
+        <v>1227</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7632</v>
+        <v>7798</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.0643093098070992</v>
+        <v>0.06430930980709919</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02414526732283184</v>
+        <v>0.02145900434329307</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1334179129957617</v>
+        <v>0.1363182805595404</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -8197,19 +8197,19 @@
         <v>4242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1777</v>
+        <v>1804</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8308</v>
+        <v>8072</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03759262029623547</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01575063723826215</v>
+        <v>0.01598299296494452</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07362736360755097</v>
+        <v>0.07152826166346243</v>
       </c>
     </row>
     <row r="15">
@@ -8226,19 +8226,19 @@
         <v>26465</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19957</v>
+        <v>20483</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>32112</v>
+        <v>32575</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.475638376949549</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3586699841534435</v>
+        <v>0.368125949464433</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5771141223731776</v>
+        <v>0.5854417458377431</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -8247,19 +8247,19 @@
         <v>23683</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18072</v>
+        <v>18718</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>28972</v>
+        <v>29337</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4140317147983153</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3159323482554249</v>
+        <v>0.3272297451533445</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5064860244769799</v>
+        <v>0.5128617505611376</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>80</v>
@@ -8268,19 +8268,19 @@
         <v>50149</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>42318</v>
+        <v>42543</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>58727</v>
+        <v>58317</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.444409126724344</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.375013525017046</v>
+        <v>0.3770059196615945</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5204287605557602</v>
+        <v>0.5167902724719341</v>
       </c>
     </row>
     <row r="16">
@@ -8297,19 +8297,19 @@
         <v>17016</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11844</v>
+        <v>12081</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22817</v>
+        <v>23556</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3058121937893791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.212860035476048</v>
+        <v>0.2171207279136973</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4100652815503828</v>
+        <v>0.4233501904467273</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -8318,19 +8318,19 @@
         <v>17378</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12614</v>
+        <v>12357</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22765</v>
+        <v>22180</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3037951921244925</v>
+        <v>0.3037951921244924</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2205246754482983</v>
+        <v>0.2160170432424528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.397981788969703</v>
+        <v>0.3877488709678481</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -8339,19 +8339,19 @@
         <v>34394</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27227</v>
+        <v>27387</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42236</v>
+        <v>42211</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3047897483671166</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2412826656654676</v>
+        <v>0.2427000368010011</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3742864287366368</v>
+        <v>0.3740684741087166</v>
       </c>
     </row>
     <row r="17">
@@ -8368,19 +8368,19 @@
         <v>11597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7441</v>
+        <v>6719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17175</v>
+        <v>17073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2084226834098207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.133730843653207</v>
+        <v>0.1207558416531182</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3086701581405017</v>
+        <v>0.3068327101276493</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -8389,19 +8389,19 @@
         <v>12462</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8457</v>
+        <v>8270</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17854</v>
+        <v>17716</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2178637832700931</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1478376597175873</v>
+        <v>0.144581087725222</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.312115556968919</v>
+        <v>0.3097056877150195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -8410,19 +8410,19 @@
         <v>24059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17516</v>
+        <v>18173</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30894</v>
+        <v>31608</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2132085046123039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1552189989400856</v>
+        <v>0.1610409832271711</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2737768016748492</v>
+        <v>0.280100362603612</v>
       </c>
     </row>
     <row r="18">
@@ -8514,19 +8514,19 @@
         <v>5864</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2683</v>
+        <v>2503</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11804</v>
+        <v>11565</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1081806562104667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0494938390569889</v>
+        <v>0.0461658441723405</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2177504735858431</v>
+        <v>0.2133462206660567</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -8535,19 +8535,19 @@
         <v>4161</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2041</v>
+        <v>1836</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8034</v>
+        <v>8096</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06895516783288887</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0338277550200005</v>
+        <v>0.03042881116460299</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1331230856793881</v>
+        <v>0.1341547628469045</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -8556,19 +8556,19 @@
         <v>10025</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5732</v>
+        <v>5497</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15886</v>
+        <v>15876</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08751688394832619</v>
+        <v>0.0875168839483262</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05003463207209945</v>
+        <v>0.04798995868188951</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1386755729579626</v>
+        <v>0.1385863325307472</v>
       </c>
     </row>
     <row r="20">
@@ -8585,19 +8585,19 @@
         <v>23339</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16993</v>
+        <v>16268</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29969</v>
+        <v>29918</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4305438227548936</v>
+        <v>0.4305438227548935</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3134758205299898</v>
+        <v>0.3001121072633091</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.552848586049968</v>
+        <v>0.551918277656324</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -8606,19 +8606,19 @@
         <v>27801</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22113</v>
+        <v>21973</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>33255</v>
+        <v>33349</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.460693453756084</v>
+        <v>0.4606934537560839</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3664349982388301</v>
+        <v>0.3641160606945144</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5510673922272036</v>
+        <v>0.5526210595509556</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -8627,19 +8627,19 @@
         <v>51140</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>42023</v>
+        <v>42735</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>60437</v>
+        <v>59366</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4464264831006163</v>
+        <v>0.4464264831006164</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3668384490657725</v>
+        <v>0.3730538054704465</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5275842168608242</v>
+        <v>0.5182292252001836</v>
       </c>
     </row>
     <row r="21">
@@ -8656,19 +8656,19 @@
         <v>18279</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12125</v>
+        <v>12773</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25056</v>
+        <v>25695</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3372001110557497</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2236684201263284</v>
+        <v>0.2356369635066498</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4622179750433361</v>
+        <v>0.474010881935253</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>46</v>
@@ -8677,19 +8677,19 @@
         <v>23572</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18334</v>
+        <v>18676</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29048</v>
+        <v>29981</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3906113864692264</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3038061538618179</v>
+        <v>0.3094708248044537</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4813545106704619</v>
+        <v>0.4968101443726551</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>69</v>
@@ -8698,19 +8698,19 @@
         <v>41851</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33419</v>
+        <v>34463</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>50899</v>
+        <v>51143</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3653368781687739</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2917313230783053</v>
+        <v>0.3008405292983606</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4443155610137093</v>
+        <v>0.4464504242437392</v>
       </c>
     </row>
     <row r="22">
@@ -8727,19 +8727,19 @@
         <v>6726</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3009</v>
+        <v>3014</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13309</v>
+        <v>13331</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1240754099788902</v>
+        <v>0.1240754099788901</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0555020955238281</v>
+        <v>0.05560122108424962</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2455101610815511</v>
+        <v>0.2459238185808622</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -8748,19 +8748,19 @@
         <v>4812</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2136</v>
+        <v>2238</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8979</v>
+        <v>9252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07973999194180084</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03539560802436016</v>
+        <v>0.03708063105838014</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1487903471525092</v>
+        <v>0.153310218984213</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -8769,19 +8769,19 @@
         <v>11538</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6815</v>
+        <v>7008</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20003</v>
+        <v>19051</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1007197547822835</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05949357974744802</v>
+        <v>0.06117440669209886</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1746140041061104</v>
+        <v>0.1663052829854939</v>
       </c>
     </row>
     <row r="23">
@@ -8923,16 +8923,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3248</v>
+        <v>3388</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05316707612898858</v>
+        <v>0.05316707612898859</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2498357607599445</v>
+        <v>0.2605961843977578</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -8944,16 +8944,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1874</v>
+        <v>1848</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02587796567582902</v>
+        <v>0.02587796567582903</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1300304861669269</v>
+        <v>0.1282443364736076</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3603</v>
+        <v>3218</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0388205699508604</v>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1314419722264098</v>
+        <v>0.1174160689291006</v>
       </c>
     </row>
     <row r="26">
@@ -8991,19 +8991,19 @@
         <v>9058</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6365</v>
+        <v>6072</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11307</v>
+        <v>11148</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6967868362274435</v>
+        <v>0.6967868362274436</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4896306531947098</v>
+        <v>0.4670964090459991</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8697974087267875</v>
+        <v>0.8575750603966568</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -9012,19 +9012,19 @@
         <v>12167</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10217</v>
+        <v>10294</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13639</v>
+        <v>13645</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.844375473886267</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7090149154251271</v>
+        <v>0.7143723255592052</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9464986402718858</v>
+        <v>0.9468847420883552</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>48</v>
@@ -9033,19 +9033,19 @@
         <v>21225</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17610</v>
+        <v>17900</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23596</v>
+        <v>23965</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.774377540608527</v>
+        <v>0.7743775406085268</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6424854421133933</v>
+        <v>0.6530593546612435</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8609019620882095</v>
+        <v>0.8743464351050512</v>
       </c>
     </row>
     <row r="27">
@@ -9062,19 +9062,19 @@
         <v>3251</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1421</v>
+        <v>1434</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6127</v>
+        <v>6301</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2500460876435677</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1093246100493802</v>
+        <v>0.1102765625260078</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.471338608244004</v>
+        <v>0.4847119381477201</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -9083,19 +9083,19 @@
         <v>1870</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3761</v>
+        <v>4088</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.129746560437904</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04888376619844639</v>
+        <v>0.05048343850956748</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2610322790307057</v>
+        <v>0.2837083342521933</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>11</v>
@@ -9104,19 +9104,19 @@
         <v>5120</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2711</v>
+        <v>2751</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>8372</v>
+        <v>8645</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1868018894406127</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09891720781597071</v>
+        <v>0.1003794219262649</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3054464169073862</v>
+        <v>0.3154189255611118</v>
       </c>
     </row>
     <row r="28">
@@ -9208,19 +9208,19 @@
         <v>1375</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3618</v>
+        <v>3896</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03634339052172169</v>
+        <v>0.0363433905217217</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01084584222949383</v>
+        <v>0.01114981025870879</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09561100411863181</v>
+        <v>0.1029591829291253</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>1375</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3763</v>
+        <v>3714</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01996807484083579</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006120823307614993</v>
+        <v>0.006069998877499289</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05464316273734631</v>
+        <v>0.05392875451151947</v>
       </c>
     </row>
     <row r="30">
@@ -9271,19 +9271,19 @@
         <v>5032</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2278</v>
+        <v>2121</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9039</v>
+        <v>9238</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1329869781445752</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06019684498768926</v>
+        <v>0.05606895840840865</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2388870040635583</v>
+        <v>0.2441473046256174</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -9292,19 +9292,19 @@
         <v>8813</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5414</v>
+        <v>5905</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12479</v>
+        <v>12784</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2840316512040928</v>
+        <v>0.2840316512040929</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1744759979049924</v>
+        <v>0.1903129422952531</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4021747896741786</v>
+        <v>0.4119870213497299</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>26</v>
@@ -9313,19 +9313,19 @@
         <v>13845</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>9150</v>
+        <v>9235</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>18781</v>
+        <v>19251</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.201043484919514</v>
+        <v>0.2010434849195142</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1328672432034473</v>
+        <v>0.1340956973627964</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2727211039420483</v>
+        <v>0.2795410455209751</v>
       </c>
     </row>
     <row r="31">
@@ -9342,19 +9342,19 @@
         <v>17556</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13151</v>
+        <v>13086</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22235</v>
+        <v>22704</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.4639980980226839</v>
+        <v>0.463998098022684</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3475706370850759</v>
+        <v>0.3458459734579456</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5876617268560452</v>
+        <v>0.6000513134604832</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -9363,19 +9363,19 @@
         <v>8527</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5656</v>
+        <v>5663</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12147</v>
+        <v>12519</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2748013241931102</v>
+        <v>0.2748013241931103</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1822900495084778</v>
+        <v>0.1825163940086679</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3914742278658313</v>
+        <v>0.4034742729722051</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>49</v>
@@ -9384,19 +9384,19 @@
         <v>26083</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20393</v>
+        <v>20919</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>32704</v>
+        <v>32555</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3787513212968651</v>
+        <v>0.3787513212968653</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2961218502514283</v>
+        <v>0.3037627884635039</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4748907535013364</v>
+        <v>0.4727265641945097</v>
       </c>
     </row>
     <row r="32">
@@ -9413,19 +9413,19 @@
         <v>13874</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9696</v>
+        <v>9196</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18611</v>
+        <v>18630</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3666715333110193</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2562510011603754</v>
+        <v>0.2430407079769149</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4918713165339121</v>
+        <v>0.4923630779448615</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -9434,19 +9434,19 @@
         <v>13689</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10175</v>
+        <v>9520</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17590</v>
+        <v>17607</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4411670246027969</v>
+        <v>0.441167024602797</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3279232275184167</v>
+        <v>0.3068070867786945</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5668741343444708</v>
+        <v>0.5674510165118301</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>49</v>
@@ -9455,19 +9455,19 @@
         <v>27563</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22098</v>
+        <v>21904</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>33727</v>
+        <v>33127</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4002371189427847</v>
+        <v>0.4002371189427849</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3208793912731155</v>
+        <v>0.318069375745074</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.489741886494901</v>
+        <v>0.4810390936093714</v>
       </c>
     </row>
     <row r="33">
@@ -9559,19 +9559,19 @@
         <v>6347</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2762</v>
+        <v>2687</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12406</v>
+        <v>12799</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05758432938165402</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02505836034525163</v>
+        <v>0.02437451507967857</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1125556754550354</v>
+        <v>0.1161282248363482</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -9580,19 +9580,19 @@
         <v>4150</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1385</v>
+        <v>1392</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8294</v>
+        <v>8323</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03450617630204224</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0115135361984937</v>
+        <v>0.01157039328034104</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06895499250799023</v>
+        <v>0.06919929963795622</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>13</v>
@@ -9601,19 +9601,19 @@
         <v>10497</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5656</v>
+        <v>5752</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>16613</v>
+        <v>17164</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.0455416489469179</v>
+        <v>0.04554164894691791</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02453804060350038</v>
+        <v>0.02495613119870066</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07207345044533854</v>
+        <v>0.07446397322812713</v>
       </c>
     </row>
     <row r="35">
@@ -9630,19 +9630,19 @@
         <v>28327</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>20027</v>
+        <v>20147</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37732</v>
+        <v>38368</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2570094606940785</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1817010135444011</v>
+        <v>0.1827931475142829</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3423438524384851</v>
+        <v>0.3481123701599173</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>54</v>
@@ -9651,19 +9651,19 @@
         <v>37028</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>29565</v>
+        <v>29055</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>46348</v>
+        <v>45556</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3078563937824646</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2458076672378309</v>
+        <v>0.2415674338761293</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3853398012566483</v>
+        <v>0.378754861801891</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>83</v>
@@ -9672,19 +9672,19 @@
         <v>65355</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>53801</v>
+        <v>53235</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>78195</v>
+        <v>77742</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.2835424923520929</v>
+        <v>0.283542492352093</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2334144813412966</v>
+        <v>0.2309581241364624</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3392467569413671</v>
+        <v>0.3372820732875479</v>
       </c>
     </row>
     <row r="36">
@@ -9701,19 +9701,19 @@
         <v>54256</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>44069</v>
+        <v>44149</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>64673</v>
+        <v>64827</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4922613154871484</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3998320325783712</v>
+        <v>0.4005601225488953</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5867703566896069</v>
+        <v>0.5881672392625938</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>95</v>
@@ -9722,19 +9722,19 @@
         <v>65460</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>56335</v>
+        <v>56686</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>73818</v>
+        <v>74635</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.5442384776547068</v>
+        <v>0.5442384776547067</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4683749620066402</v>
+        <v>0.471288929825789</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6137268439852018</v>
+        <v>0.6205247493804597</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>150</v>
@@ -9743,19 +9743,19 @@
         <v>119715</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>105738</v>
+        <v>106241</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>132472</v>
+        <v>134052</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5193841251733944</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4587425419697929</v>
+        <v>0.4609237419827137</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5747261873101498</v>
+        <v>0.5815849624638149</v>
       </c>
     </row>
     <row r="37">
@@ -9772,19 +9772,19 @@
         <v>21288</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>13887</v>
+        <v>14388</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>29992</v>
+        <v>30545</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1931448944371192</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1259974656762203</v>
+        <v>0.1305434400103241</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2721160027488646</v>
+        <v>0.2771285307934065</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -9793,19 +9793,19 @@
         <v>13639</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8270</v>
+        <v>8657</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>20570</v>
+        <v>20519</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1133989522607864</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06876023806687526</v>
+        <v>0.07197248072700846</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1710239090661193</v>
+        <v>0.1706002976014819</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>42</v>
@@ -9814,19 +9814,19 @@
         <v>34927</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25886</v>
+        <v>25782</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>44974</v>
+        <v>45890</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1515317335275948</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1123045820083235</v>
+        <v>0.1118557964189427</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1951199522775406</v>
+        <v>0.1990924001935774</v>
       </c>
     </row>
     <row r="38">
@@ -9934,16 +9934,16 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4794</v>
+        <v>4195</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.009158364946321758</v>
+        <v>0.009158364946321761</v>
       </c>
       <c r="O39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03240161183638501</v>
+        <v>0.02835274883823709</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2</v>
@@ -9955,16 +9955,16 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>4154</v>
+        <v>4141</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.004704912405827559</v>
+        <v>0.004704912405827558</v>
       </c>
       <c r="V39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01442331978854896</v>
+        <v>0.01437995085731439</v>
       </c>
     </row>
     <row r="40">
@@ -9981,19 +9981,19 @@
         <v>4599</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2001</v>
+        <v>1716</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9509</v>
+        <v>8812</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.03284148651343653</v>
+        <v>0.03284148651343652</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01429197622392186</v>
+        <v>0.01225346000394475</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06790444549229978</v>
+        <v>0.06292533419246817</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -10002,19 +10002,19 @@
         <v>5907</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2579</v>
+        <v>2728</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10708</v>
+        <v>10760</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.03992672733071811</v>
+        <v>0.03992672733071812</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01743310944104274</v>
+        <v>0.01843923721725512</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07237443976437914</v>
+        <v>0.07273086583497707</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>15</v>
@@ -10023,19 +10023,19 @@
         <v>10506</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6046</v>
+        <v>5759</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17974</v>
+        <v>16435</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.03648137612417893</v>
+        <v>0.03648137612417892</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02099361545356035</v>
+        <v>0.01999714537920544</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06241338329719599</v>
+        <v>0.05706873423689852</v>
       </c>
     </row>
     <row r="41">
@@ -10052,19 +10052,19 @@
         <v>93091</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>83283</v>
+        <v>83229</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>103640</v>
+        <v>102998</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.6647433179235721</v>
+        <v>0.664743317923572</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.5947063047336972</v>
+        <v>0.5943169565785543</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.7400682411916518</v>
+        <v>0.735485977620745</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>175</v>
@@ -10073,19 +10073,19 @@
         <v>111262</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>102596</v>
+        <v>102985</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>119462</v>
+        <v>118847</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.7520369713830543</v>
+        <v>0.7520369713830546</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.6934616943365187</v>
+        <v>0.6960892121257096</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.8074565417845982</v>
+        <v>0.8033016093906272</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>299</v>
@@ -10094,19 +10094,19 @@
         <v>204354</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>189564</v>
+        <v>192833</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>216190</v>
+        <v>218538</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.7095885490886048</v>
+        <v>0.7095885490886047</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.6582320696746143</v>
+        <v>0.6695832436310165</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7506872054046215</v>
+        <v>0.7588407246686254</v>
       </c>
     </row>
     <row r="42">
@@ -10123,19 +10123,19 @@
         <v>42351</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>32429</v>
+        <v>33204</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>51520</v>
+        <v>51664</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3024151955629913</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2315662938271082</v>
+        <v>0.237100640045905</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3678912680938669</v>
+        <v>0.3689189059302068</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>47</v>
@@ -10144,19 +10144,19 @@
         <v>29424</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>22704</v>
+        <v>22752</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>38188</v>
+        <v>37615</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.1988779363399056</v>
+        <v>0.1988779363399057</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1534613991280984</v>
+        <v>0.1537848783859568</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2581206993162412</v>
+        <v>0.2542461774835268</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>102</v>
@@ -10165,19 +10165,19 @@
         <v>71774</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>60393</v>
+        <v>59497</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>85534</v>
+        <v>83805</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.2492251623813889</v>
+        <v>0.2492251623813888</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.209705946103981</v>
+        <v>0.2065940363719797</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2970044499427386</v>
+        <v>0.2910003244966363</v>
       </c>
     </row>
     <row r="43">
@@ -10269,19 +10269,19 @@
         <v>19629</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>12187</v>
+        <v>12703</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>29328</v>
+        <v>28017</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0357119871055905</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02217252549958173</v>
+        <v>0.02311089719884099</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05335868863921793</v>
+        <v>0.05097358476222252</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>29</v>
@@ -10290,19 +10290,19 @@
         <v>17324</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>11457</v>
+        <v>11592</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>24567</v>
+        <v>24680</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.03405041931844046</v>
+        <v>0.03405041931844045</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02251847733932818</v>
+        <v>0.022784203151102</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04828608005828164</v>
+        <v>0.04850813411242681</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>53</v>
@@ -10311,19 +10311,19 @@
         <v>36953</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>28239</v>
+        <v>28131</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>49147</v>
+        <v>49274</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03491328634787585</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02668074575203783</v>
+        <v>0.0265785848428208</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04643406552279524</v>
+        <v>0.0465539775961076</v>
       </c>
     </row>
     <row r="45">
@@ -10340,19 +10340,19 @@
         <v>135435</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>119867</v>
+        <v>117955</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>154676</v>
+        <v>155544</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.2464041297481983</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.218080180831552</v>
+        <v>0.2146015853998658</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2814097381296534</v>
+        <v>0.2829896515352838</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>236</v>
@@ -10361,19 +10361,19 @@
         <v>133678</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>118978</v>
+        <v>118099</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>149815</v>
+        <v>147201</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.2627462960698398</v>
+        <v>0.2627462960698397</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2338531253900063</v>
+        <v>0.232125036311866</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.2944631414935864</v>
+        <v>0.2893253429626074</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>400</v>
@@ -10382,19 +10382,19 @@
         <v>269113</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>245352</v>
+        <v>246689</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>294396</v>
+        <v>293794</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.2542596627723319</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.2318097277007438</v>
+        <v>0.2330733921727627</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.2781474526824761</v>
+        <v>0.2775785467410583</v>
       </c>
     </row>
     <row r="46">
@@ -10411,19 +10411,19 @@
         <v>273817</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>253221</v>
+        <v>253256</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>296821</v>
+        <v>294480</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.4981698600301874</v>
+        <v>0.4981698600301875</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.4606980066607593</v>
+        <v>0.4607614763387253</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.5400215761530403</v>
+        <v>0.5357629088454782</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>444</v>
@@ -10432,19 +10432,19 @@
         <v>263528</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>246457</v>
+        <v>247964</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>280859</v>
+        <v>283074</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.5179695646391013</v>
+        <v>0.5179695646391014</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.4844154164369454</v>
+        <v>0.4873771802950879</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.5520330395586714</v>
+        <v>0.556387491579165</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>793</v>
@@ -10453,19 +10453,19 @@
         <v>537345</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>508000</v>
+        <v>507591</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>564150</v>
+        <v>563978</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.5076874007504432</v>
+        <v>0.5076874007504433</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.4799615356632048</v>
+        <v>0.4795752290981675</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5330122742305722</v>
+        <v>0.5328498000556077</v>
       </c>
     </row>
     <row r="47">
@@ -10482,19 +10482,19 @@
         <v>120765</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>103800</v>
+        <v>102912</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>139814</v>
+        <v>139870</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2197140231160236</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1888495474799408</v>
+        <v>0.1872331797054871</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2543708431467859</v>
+        <v>0.2544721263474464</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>158</v>
@@ -10503,19 +10503,19 @@
         <v>94242</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>81106</v>
+        <v>80288</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>107497</v>
+        <v>105943</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1852337199726184</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1594147162798565</v>
+        <v>0.1578072616941362</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2112862819201771</v>
+        <v>0.2082327289287831</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>307</v>
@@ -10524,19 +10524,19 @@
         <v>215007</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>193349</v>
+        <v>192942</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>237547</v>
+        <v>237897</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2031396501293491</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1826771170360229</v>
+        <v>0.1822927854756531</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2244363149859044</v>
+        <v>0.2247664079826878</v>
       </c>
     </row>
     <row r="48">
